--- a/trunk/etc/test-data/maria.xlsx
+++ b/trunk/etc/test-data/maria.xlsx
@@ -418,6 +418,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
+  <foo/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
